--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H2">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.9024289107934966</v>
       </c>
       <c r="Q2">
-        <v>11.84555718565255</v>
+        <v>0.9268953982968888</v>
       </c>
       <c r="R2">
-        <v>106.610014670873</v>
+        <v>8.342058584671999</v>
       </c>
       <c r="S2">
-        <v>0.2527027818777971</v>
+        <v>0.02665310832609218</v>
       </c>
       <c r="T2">
-        <v>0.2527027818777971</v>
+        <v>0.02665310832609219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H3">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>0.09757108920650338</v>
       </c>
       <c r="Q3">
-        <v>1.280747882784222</v>
+        <v>0.1002164187235556</v>
       </c>
       <c r="R3">
-        <v>11.526730945058</v>
+        <v>0.9019477685120001</v>
       </c>
       <c r="S3">
-        <v>0.0273223578926011</v>
+        <v>0.002881748112246405</v>
       </c>
       <c r="T3">
-        <v>0.0273223578926011</v>
+        <v>0.002881748112246406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>36.201142</v>
       </c>
       <c r="I4">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J4">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>140.395594714678</v>
       </c>
       <c r="S4">
-        <v>0.3327863471111589</v>
+        <v>0.4485678153006616</v>
       </c>
       <c r="T4">
-        <v>0.3327863471111589</v>
+        <v>0.4485678153006616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -750,16 +750,16 @@
         <v>0.09757108920650338</v>
       </c>
       <c r="Q5">
-        <v>1.686627295176445</v>
+        <v>1.686627295176444</v>
       </c>
       <c r="R5">
         <v>15.179645656588</v>
       </c>
       <c r="S5">
-        <v>0.03598103515116604</v>
+        <v>0.04849938848189503</v>
       </c>
       <c r="T5">
-        <v>0.03598103515116604</v>
+        <v>0.04849938848189503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.477322</v>
       </c>
       <c r="I6">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J6">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -818,10 +818,10 @@
         <v>133.710260476298</v>
       </c>
       <c r="S6">
-        <v>0.3169397818045407</v>
+        <v>0.4272079871667429</v>
       </c>
       <c r="T6">
-        <v>0.3169397818045407</v>
+        <v>0.4272079871667429</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>34.477322</v>
       </c>
       <c r="I7">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J7">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -880,10 +880,10 @@
         <v>14.456823797108</v>
       </c>
       <c r="S7">
-        <v>0.03426769616273625</v>
+        <v>0.04618995261236195</v>
       </c>
       <c r="T7">
-        <v>0.03426769616273625</v>
+        <v>0.04618995261236195</v>
       </c>
     </row>
   </sheetData>
